--- a/biology/Botanique/Ulex_minor/Ulex_minor.xlsx
+++ b/biology/Botanique/Ulex_minor/Ulex_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Ajonc nain ou Petit ajonc (Ulex minor) est un arbrisseau vivace, hermaphrodite, très épineux, prostré à dressé, dont les tiges peuvent atteindre environ 1 m[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Ajonc nain ou Petit ajonc (Ulex minor) est un arbrisseau vivace, hermaphrodite, très épineux, prostré à dressé, dont les tiges peuvent atteindre environ 1 m.
 Il est fréquent sur silice dans les landes humides et lieux incultes particulièrement dans l'ouest et le centre de la France ; rare ailleurs. Il est parfois appelé Ajonc de lande, Bruyère jaune ou Petit landin.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ulex nanus T.F. Forst. ex Symons (ancien selon ITIS)</t>
         </is>
@@ -542,15 +556,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa tige est dressée, très ramifiée, à rameaux munis de nombreuses épines grêles, peu piquantes, longues de 8 à 15 mm[1], laissant à peine voir le rameau.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa tige est dressée, très ramifiée, à rameaux munis de nombreuses épines grêles, peu piquantes, longues de 8 à 15 mm, laissant à peine voir le rameau.
 Ses feuilles grêles sont linéaires; stipules absentes.
-Inflorescence : racème simple ; fleurs longues d'environ 8 à 10 mm[1] ; bractées calicinales lancéolées, environ de même largeur que les pédicelles ; calice jaune, bilabié, un peu velu, à poils appliqués ; corolle jaune vif à étendard souvent veiné de rouge et à ailes plus courtes que la carène ; androcée monadelphe. Juillet-octobre.
+Inflorescence : racème simple ; fleurs longues d'environ 8 à 10 mm ; bractées calicinales lancéolées, environ de même largeur que les pédicelles ; calice jaune, bilabié, un peu velu, à poils appliqués ; corolle jaune vif à étendard souvent veiné de rouge et à ailes plus courtes que la carène ; androcée monadelphe. Juillet-octobre.
 Fruit : légume velu, long de 7 à 8 mm[réf. nécessaire], inclus dans le calice.
 Pollinisation : entomogame.
 Dissémination : myrmécochore.
-Le criquet Chorthippus binotatus se nourrit exclusivement d'ajonc nain[2].
+Le criquet Chorthippus binotatus se nourrit exclusivement d'ajonc nain.
 </t>
         </is>
       </c>
